--- a/biology/Médecine/Syndactylie/Syndactylie.xlsx
+++ b/biology/Médecine/Syndactylie/Syndactylie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec sun : « avec », et dactyl : « doigt », la syndactylie est une malformation congénitale caractérisée par l'accolement et une fusion plus ou moins complète de deux ou plusieurs doigts ou orteils entre eux. La fusion peut se situer au niveau de la peau ou simultanément des os et de la peau.
 Il s'agit d'un défaut d'élimination des cellules de la palmure interdigitale (présente au niveau des doigts et des orteils) chez l'embryon.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« symphalangie », ou « palmature », quand ce sont les doigts de la main qui sont concernés ;
 « polysyndactylie », quand on retrouve plusieurs syndactylies.</t>
@@ -544,7 +558,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon le nombre de doigts ou d'orteils concernés, la syndactylie est dite « complète » ou « partielle » :
 syndactylie complète : tous les doigts sont soudés, comme dans le syndrome d'Apert (mains en moufles) ;
@@ -576,7 +592,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Orpha.net , site de renseignement sur les maladies rares et les médicaments orphelins
 Manuila, A. et al. Dictionnaire français de médecine et de biologie en quatre volumes. Avec la collaboration de J. Hureau et al. Paris : Éditions Masson, 1970-1975. 4 vol., p. 793.</t>
